--- a/base/matrix_a.xlsx
+++ b/base/matrix_a.xlsx
@@ -333,8 +333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -343,9 +343,6 @@
       <c r="A1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
       <c r="C1">
         <v>0</v>
       </c>
